--- a/docs/Gráficos Burndown/Gráfico burndown.xlsx
+++ b/docs/Gráficos Burndown/Gráfico burndown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cerberus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C825FB8A-2AED-40C3-9497-A48498BA8B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A2539DB-B833-423D-A793-36DC0855BA10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Gráfico Burndown</t>
   </si>
@@ -181,6 +181,45 @@
   </si>
   <si>
     <t xml:space="preserve">Validação do login e início de session. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Validação no formulário do participante </t>
+  </si>
+  <si>
+    <t>Colocar a opção de ver mais no gerenciamento de atividade</t>
+  </si>
+  <si>
+    <t>Adicionar a formação no formulário do participante</t>
+  </si>
+  <si>
+    <t>Validação do formulário de cupons</t>
+  </si>
+  <si>
+    <t>Usando a plataforma Heroku</t>
+  </si>
+  <si>
+    <t>Criar e valida o formulário de ministrante</t>
+  </si>
+  <si>
+    <t>Criar o login do participante</t>
+  </si>
+  <si>
+    <t>Listar atividades disponíveis para inscrição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar eventos disponíveis para participação. </t>
+  </si>
+  <si>
+    <t>Criação da Página inicial.</t>
+  </si>
+  <si>
+    <t>Banco relacional.</t>
+  </si>
+  <si>
+    <t>Validação do Login de Administrador.</t>
+  </si>
+  <si>
+    <t>Retornar dados nos devidos campos se caso der alguma mensagem de erro.</t>
   </si>
   <si>
     <t>Restante</t>
@@ -318,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -329,138 +368,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="double">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="double">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
       <bottom style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </bottom>
@@ -482,38 +390,10 @@
       <right style="dashed">
         <color theme="4" tint="-0.499984740745262"/>
       </right>
-      <top style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
       <top style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </top>
       <bottom style="thick">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -573,30 +453,6 @@
       <right style="thick">
         <color theme="4" tint="-0.499984740745262"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
       <top style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </top>
@@ -609,35 +465,9 @@
       <left style="dashed">
         <color theme="4" tint="-0.499984740745262"/>
       </left>
-      <right style="thick">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
         <color theme="4" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -663,15 +493,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="dashed">
+      <left/>
+      <right style="thick">
         <color theme="4" tint="-0.499984740745262"/>
       </right>
-      <top style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
+      <top/>
       <bottom style="dashed">
         <color theme="4" tint="-0.499984740745262"/>
       </bottom>
@@ -679,9 +505,46 @@
     </border>
     <border>
       <left/>
+      <right style="thick">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="dashed">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="dashed">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
       <top/>
-      <bottom style="double">
+      <bottom style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -690,10 +553,40 @@
       <left style="dashed">
         <color theme="4" tint="-0.499984740745262"/>
       </left>
-      <right/>
+      <right style="dashed">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="dashed">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
       <top/>
       <bottom style="dashed">
         <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,160 +594,121 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,7 +793,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Current Iteration'!$A$49</c:f>
+              <c:f>'Current Iteration'!$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -975,9 +829,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Current Iteration'!$B$7:$J$7</c:f>
+              <c:f>'Current Iteration'!$B$8:$N$8</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Horas</c:v>
                 </c:pt>
@@ -1004,42 +858,66 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Current Iteration'!$B$49:$J$49</c:f>
+              <c:f>'Current Iteration'!$B$63:$N$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>164</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,7 +934,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Current Iteration'!$A$50</c:f>
+              <c:f>'Current Iteration'!$A$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1096,9 +974,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Current Iteration'!$B$7:$J$7</c:f>
+              <c:f>'Current Iteration'!$B$8:$N$8</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Horas</c:v>
                 </c:pt>
@@ -1125,42 +1003,66 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Current Iteration'!$B$50:$J$50</c:f>
+              <c:f>'Current Iteration'!$B$64:$N$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>164</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.77777777777777</c:v>
+                  <c:v>205.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127.55555555555554</c:v>
+                  <c:v>186.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109.33333333333331</c:v>
+                  <c:v>168.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.111111111111086</c:v>
+                  <c:v>149.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.888888888888857</c:v>
+                  <c:v>130.66666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.666666666666636</c:v>
+                  <c:v>112.00000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.444444444444414</c:v>
+                  <c:v>93.333333333333371</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.222222222222193</c:v>
+                  <c:v>74.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.333333333333357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.666666666666689</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1316282072803006E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,7 +1150,6 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1297,7 +1198,7 @@
         </c:txPr>
         <c:crossAx val="605396376"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1463,7 +1364,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Validar formulários</c:v>
+                  <c:v>Condições de inscrição nas atividades.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1560,62 +1461,30 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
-            <c:strRef>
-              <c:f>'Current Iteration'!$B$7:$V$7</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Horas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Balanço</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Porcentagem completa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'Current Iteration'!$B$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="24"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Current Iteration'!$B$38:$V$38</c:f>
+              <c:f>'Current Iteration'!$B$38:$Y$38</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.00%">
+                <c:pt idx="14" formatCode="0.00%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1637,7 +1506,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Condições de inscrição nas atividades</c:v>
+                  <c:v>Validar formulários</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1721,62 +1590,30 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Current Iteration'!$B$7:$V$7</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Horas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Balanço</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Porcentagem completa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'Current Iteration'!$B$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="24"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Current Iteration'!$B$39:$V$39</c:f>
+              <c:f>'Current Iteration'!$B$39:$Y$39</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.00%">
+                <c:pt idx="14" formatCode="0.00%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3208,15 +3045,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
+      <xdr:rowOff>1181100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3586,11 +3423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE633DE-FC74-4926-B2DF-316D2130537E}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="N48" sqref="N48"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="R64" sqref="R64"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -3599,1379 +3436,1963 @@
   <cols>
     <col min="1" max="1" width="70.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="11" width="5.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="3" max="14" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
-    </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" ht="97.5" customHeight="1">
-      <c r="A5" s="32" t="s">
+    <row r="1" spans="1:16" ht="21" customHeight="1">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="97.5" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1">
+      <c r="A6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="45" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="P6" s="39"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" ht="45.75" customHeight="1">
+      <c r="A8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="19">
         <v>3</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="19">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="19">
         <v>5</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H8" s="19">
         <v>6</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I8" s="19">
         <v>7</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J8" s="19">
         <v>8</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="10" t="s">
+      <c r="K8" s="21">
+        <v>9</v>
+      </c>
+      <c r="L8" s="21">
+        <v>10</v>
+      </c>
+      <c r="M8" s="21">
+        <v>11</v>
+      </c>
+      <c r="N8" s="21">
+        <v>12</v>
+      </c>
+      <c r="O8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="P8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:16" ht="30" customHeight="1">
+      <c r="A9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B9" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C9" s="29">
         <v>5</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="20">
-        <f>B8-SUM(C8:J8)</f>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32">
+        <f>B9-SUM(C9:N9)</f>
         <v>-1</v>
       </c>
-      <c r="M8" s="11">
-        <f>IFERROR(1-(L8/B8),"")</f>
+      <c r="P9" s="16">
+        <f>IFERROR(1-(O9/B9),"")</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:16" ht="30" customHeight="1">
+      <c r="A10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B10" s="28">
         <v>2</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C10" s="29">
         <v>1</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="21">
-        <f>B9-SUM(C9:J9)</f>
+      <c r="D10" s="30"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32">
+        <f>B10-SUM(C10:N10)</f>
         <v>1</v>
       </c>
-      <c r="M9" s="11">
-        <f>IFERROR(1-(L9/B9),"")</f>
+      <c r="P10" s="16">
+        <f>IFERROR(1-(O10/B10),"")</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:16" ht="30" customHeight="1">
+      <c r="A11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B11" s="28">
         <v>2</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C11" s="29">
         <v>2</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="21">
-        <f>B10-SUM(C10:J10)</f>
+      <c r="D11" s="30"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32">
+        <f>B11-SUM(C11:N11)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="11">
-        <f>IFERROR(1-(L10/B10),"")</f>
+      <c r="P11" s="16">
+        <f>IFERROR(1-(O11/B11),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:16" ht="30" customHeight="1">
+      <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B12" s="28">
         <v>2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C12" s="29">
         <v>2</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="21">
-        <f>B11-SUM(C11:J11)</f>
+      <c r="D12" s="30"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32">
+        <f>B12-SUM(C12:N12)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="11">
-        <f>IFERROR(1-(L11/B11),"")</f>
+      <c r="P12" s="16">
+        <f>IFERROR(1-(O12/B12),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:16" ht="30" customHeight="1">
+      <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B13" s="28">
         <v>5</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17">
+      <c r="C13" s="29"/>
+      <c r="D13" s="30">
         <v>3</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E13" s="29">
         <v>2</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="21">
-        <f>B12-SUM(C12:J12)</f>
+      <c r="F13" s="30"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="32">
+        <f>B13-SUM(C13:N13)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="11">
-        <f>IFERROR(1-(L12/B12),"")</f>
+      <c r="P13" s="16">
+        <f>IFERROR(1-(O13/B13),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:16" ht="30" customHeight="1">
+      <c r="A14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B14" s="28">
         <v>4</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30">
         <v>2</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E14" s="29">
         <v>2</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="21">
-        <f>B13-SUM(C13:J13)</f>
+      <c r="F14" s="30"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32">
+        <f>B14-SUM(C14:N14)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="11">
-        <f>IFERROR(1-(L13/B13),"")</f>
+      <c r="P14" s="16">
+        <f>IFERROR(1-(O14/B14),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:16" ht="30" customHeight="1">
+      <c r="A15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B15" s="28">
         <v>4</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17">
+      <c r="C15" s="29"/>
+      <c r="D15" s="30">
         <v>2</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="21">
-        <f>B14-SUM(C14:J14)</f>
+      <c r="F15" s="30"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32">
+        <f>B15-SUM(C15:N15)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="11">
-        <f>IFERROR(1-(L14/B14),"")</f>
+      <c r="P15" s="16">
+        <f>IFERROR(1-(O15/B15),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:16" ht="30" customHeight="1">
+      <c r="A16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B16" s="28">
         <v>6</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30">
         <v>3</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="29">
         <v>3</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="21">
-        <f>B15-SUM(C15:J15)</f>
+      <c r="F16" s="30"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32">
+        <f>B16-SUM(C16:N16)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="11">
-        <f>IFERROR(1-(L15/B15),"")</f>
+      <c r="P16" s="16">
+        <f>IFERROR(1-(O16/B16),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:16" ht="30" customHeight="1">
+      <c r="A17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B17" s="28">
         <v>4</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30">
         <v>2</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="21">
-        <f>B16-SUM(C16:J16)</f>
+      <c r="F17" s="30"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32">
+        <f>B17-SUM(C17:N17)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="11">
-        <f>IFERROR(1-(L16/B16),"")</f>
+      <c r="P17" s="16">
+        <f>IFERROR(1-(O17/B17),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:16" ht="30" customHeight="1">
+      <c r="A18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B18" s="28">
         <v>5</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17">
+      <c r="C18" s="29"/>
+      <c r="D18" s="30">
         <v>3</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E18" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="21">
-        <f>B17-SUM(C17:J17)</f>
+      <c r="F18" s="30"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32">
+        <f>B18-SUM(C18:N18)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="11">
-        <f>IFERROR(1-(L17/B17),"")</f>
+      <c r="P18" s="16">
+        <f>IFERROR(1-(O18/B18),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:16" ht="30" customHeight="1">
+      <c r="A19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B19" s="28">
         <v>12</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17">
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30">
         <v>10</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="21">
-        <f>B18-SUM(C18:J18)</f>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32">
+        <f>B19-SUM(C19:N19)</f>
         <v>2</v>
       </c>
-      <c r="M18" s="11">
-        <f>IFERROR(1-(L18/B18),"")</f>
+      <c r="P19" s="16">
+        <f>IFERROR(1-(O19/B19),"")</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:16" ht="30" customHeight="1">
+      <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B20" s="28">
         <v>12</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17">
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30">
         <v>9</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="21">
-        <f>B19-SUM(C19:J19)</f>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32">
+        <f>B20-SUM(C20:N20)</f>
         <v>3</v>
       </c>
-      <c r="M19" s="11">
-        <f>IFERROR(1-(L19/B19),"")</f>
+      <c r="P20" s="16">
+        <f>IFERROR(1-(O20/B20),"")</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:16" ht="30" customHeight="1">
+      <c r="A21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B21" s="28">
         <v>1</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17">
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30">
         <v>2</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="21">
-        <f>B20-SUM(C20:J20)</f>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32">
+        <f>B21-SUM(C21:N21)</f>
         <v>-1</v>
       </c>
-      <c r="M20" s="11">
-        <f>IFERROR(1-(L20/B20),"")</f>
+      <c r="P21" s="16">
+        <f>IFERROR(1-(O21/B21),"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:16" ht="30" customHeight="1">
+      <c r="A22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B22" s="28">
         <v>5</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17">
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30">
         <v>3</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="21">
-        <f>B21-SUM(C21:J21)</f>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="32">
+        <f>B22-SUM(C22:N22)</f>
         <v>2</v>
       </c>
-      <c r="M21" s="11">
-        <f>IFERROR(1-(L21/B21),"")</f>
+      <c r="P22" s="16">
+        <f>IFERROR(1-(O22/B22),"")</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:16" ht="30" customHeight="1">
+      <c r="A23" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B23" s="28">
         <v>8</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17">
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30">
         <v>10</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="21">
-        <f>B22-SUM(C22:J22)</f>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32">
+        <f>B23-SUM(C23:N23)</f>
         <v>-2</v>
       </c>
-      <c r="M22" s="11">
-        <f>IFERROR(1-(L22/B22),"")</f>
+      <c r="P23" s="16">
+        <f>IFERROR(1-(O23/B23),"")</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:16" ht="30" customHeight="1">
+      <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B24" s="28">
         <v>3</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16">
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="29">
         <v>2</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="21">
-        <f>B23-SUM(C23:J23)</f>
+      <c r="H24" s="30"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="32">
+        <f>B24-SUM(C24:N24)</f>
         <v>1</v>
       </c>
-      <c r="M23" s="11">
-        <f>IFERROR(1-(L23/B23),"")</f>
+      <c r="P24" s="16">
+        <f>IFERROR(1-(O24/B24),"")</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:16" ht="30" customHeight="1">
+      <c r="A25" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B25" s="28">
         <v>3</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16">
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="29">
         <v>4</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="21">
-        <f>B24-SUM(C24:J24)</f>
+      <c r="H25" s="30"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="32">
+        <f>B25-SUM(C25:N25)</f>
         <v>-1</v>
       </c>
-      <c r="M24" s="11">
-        <f>IFERROR(1-(L24/B24),"")</f>
+      <c r="P25" s="16">
+        <f>IFERROR(1-(O25/B25),"")</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:16" ht="30" customHeight="1">
+      <c r="A26" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B26" s="28">
         <v>5</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="16">
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="29">
         <v>6</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="21">
-        <f>B25-SUM(C25:J25)</f>
+      <c r="H26" s="30"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="32">
+        <f>B26-SUM(C26:N26)</f>
         <v>-1</v>
       </c>
-      <c r="M25" s="11">
-        <f>IFERROR(1-(L25/B25),"")</f>
+      <c r="P26" s="16">
+        <f>IFERROR(1-(O26/B26),"")</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:16" ht="30" customHeight="1">
+      <c r="A27" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B27" s="28">
         <v>3</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17">
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30">
         <v>3</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="21">
-        <f>B26-SUM(C26:J26)</f>
+      <c r="I27" s="29"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="32">
+        <f>B27-SUM(C27:N27)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="11">
-        <f>IFERROR(1-(L26/B26),"")</f>
+      <c r="P27" s="16">
+        <f>IFERROR(1-(O27/B27),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:16" ht="30" customHeight="1">
+      <c r="A28" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B28" s="28">
         <v>5</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17">
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30">
         <v>4</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="21">
-        <f>B27-SUM(C27:J27)</f>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="32">
+        <f>B28-SUM(C28:N28)</f>
         <v>1</v>
       </c>
-      <c r="M27" s="11">
-        <f>IFERROR(1-(L27/B27),"")</f>
+      <c r="P28" s="16">
+        <f>IFERROR(1-(O28/B28),"")</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:16" ht="30" customHeight="1">
+      <c r="A29" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B29" s="28">
         <v>4</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17">
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30">
         <v>4</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="21">
-        <f>B28-SUM(C28:J28)</f>
+      <c r="I29" s="29"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="32">
+        <f>B29-SUM(C29:N29)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="11">
-        <f>IFERROR(1-(L28/B28),"")</f>
+      <c r="P29" s="16">
+        <f>IFERROR(1-(O29/B29),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:16" ht="30" customHeight="1">
+      <c r="A30" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B30" s="28">
         <v>3</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17">
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30">
         <v>3</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="21">
-        <f>B29-SUM(C29:J29)</f>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="32">
+        <f>B30-SUM(C30:N30)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="11">
-        <f>IFERROR(1-(L29/B29),"")</f>
+      <c r="P30" s="16">
+        <f>IFERROR(1-(O30/B30),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:16" ht="30" customHeight="1">
+      <c r="A31" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B31" s="28">
         <v>6</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="16">
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="29">
         <v>7</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="21">
-        <f>B30-SUM(C30:J30)</f>
+      <c r="J31" s="30"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="32">
+        <f>B31-SUM(C31:N31)</f>
         <v>-1</v>
       </c>
-      <c r="M30" s="11">
-        <f>IFERROR(1-(L30/B30),"")</f>
+      <c r="P31" s="16">
+        <f>IFERROR(1-(O31/B31),"")</f>
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:16" ht="30" customHeight="1">
+      <c r="A32" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B32" s="28">
         <v>2</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="16">
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="29">
         <v>4</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="21">
-        <f>B31-SUM(C31:J31)</f>
+      <c r="J32" s="30"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="32">
+        <f>B32-SUM(C32:N32)</f>
         <v>-2</v>
       </c>
-      <c r="M31" s="11">
-        <f>IFERROR(1-(L31/B31),"")</f>
+      <c r="P32" s="16">
+        <f>IFERROR(1-(O32/B32),"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:16" ht="30" customHeight="1">
+      <c r="A33" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B33" s="28">
         <v>5</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="16">
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="29">
         <v>6</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="21">
-        <f>B32-SUM(C32:J32)</f>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32">
+        <f>B33-SUM(C33:N33)</f>
         <v>-1</v>
       </c>
-      <c r="M32" s="11">
-        <f>IFERROR(1-(L32/B32),"")</f>
+      <c r="P33" s="16">
+        <f>IFERROR(1-(O33/B33),"")</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30" customHeight="1">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:16" ht="30" customHeight="1">
+      <c r="A34" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B34" s="28">
         <v>7</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="12">
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="28">
         <v>9</v>
       </c>
-      <c r="K33" s="50"/>
-      <c r="L33" s="21">
-        <f>B33-SUM(C33:J33)</f>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="32">
+        <f>B34-SUM(C34:N34)</f>
         <v>-2</v>
       </c>
-      <c r="M33" s="11">
-        <f>IFERROR(1-(L33/B33),"")</f>
+      <c r="P34" s="16">
+        <f>IFERROR(1-(O34/B34),"")</f>
         <v>1.2857142857142856</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:16" ht="30" customHeight="1">
+      <c r="A35" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B35" s="28">
         <v>4</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="15">
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="28">
         <v>2</v>
       </c>
-      <c r="K34" s="51"/>
-      <c r="L34" s="21">
-        <f>B34-SUM(C34:J34)</f>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="32">
+        <f>B35-SUM(C35:N35)</f>
         <v>2</v>
       </c>
-      <c r="M34" s="11">
-        <f>IFERROR(1-(L34/B34),"")</f>
+      <c r="P35" s="16">
+        <f>IFERROR(1-(O35/B35),"")</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30" customHeight="1">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:16" ht="30" customHeight="1">
+      <c r="A36" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B36" s="28">
         <v>4</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="15">
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="28">
         <v>3</v>
       </c>
-      <c r="K35" s="51"/>
-      <c r="L35" s="21">
-        <f>B35-SUM(C35:J35)</f>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="32">
+        <f>B36-SUM(C36:N36)</f>
         <v>1</v>
       </c>
-      <c r="M35" s="11">
-        <f>IFERROR(1-(L35/B35),"")</f>
+      <c r="P36" s="16">
+        <f>IFERROR(1-(O36/B36),"")</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="30" customHeight="1">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:16" ht="30" customHeight="1">
+      <c r="A37" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B37" s="28">
         <v>4</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="15">
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="28">
         <v>4</v>
       </c>
-      <c r="K36" s="51"/>
-      <c r="L36" s="21">
-        <f>B36-SUM(C36:J36)</f>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="32">
+        <f>B37-SUM(C37:N37)</f>
         <v>0</v>
       </c>
-      <c r="M36" s="11">
-        <f>IFERROR(1-(L36/B36),"")</f>
+      <c r="P37" s="16">
+        <f>IFERROR(1-(O37/B37),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="30" customHeight="1">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:16" ht="30" customHeight="1">
+      <c r="A38" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B38" s="28">
         <v>3</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="15">
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="28">
         <v>3</v>
       </c>
-      <c r="K37" s="51"/>
-      <c r="L37" s="21">
-        <f>B37-SUM(C37:J37)</f>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="32">
+        <f>B38-SUM(C38:N38)</f>
         <v>0</v>
       </c>
-      <c r="M37" s="11">
-        <f>IFERROR(1-(L37/B37),"")</f>
+      <c r="P38" s="16">
+        <f>IFERROR(1-(O38/B38),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30" customHeight="1">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:16" ht="30" customHeight="1">
+      <c r="A39" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B39" s="28">
         <v>4</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="15">
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="28">
         <v>4</v>
       </c>
-      <c r="K38" s="51"/>
-      <c r="L38" s="21">
-        <f>B38-SUM(C38:J38)</f>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="32">
+        <f>B39-SUM(C39:N39)</f>
         <v>0</v>
       </c>
-      <c r="M38" s="11">
-        <f>IFERROR(1-(L38/B38),"")</f>
+      <c r="P39" s="16">
+        <f>IFERROR(1-(O39/B39),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A40" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B40" s="28">
         <v>2</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="15">
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="28">
         <v>2</v>
       </c>
-      <c r="K39" s="51"/>
-      <c r="L39" s="21">
-        <f>B39-SUM(C39:J39)</f>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="32">
+        <f>B40-SUM(C40:N40)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="11">
-        <f>IFERROR(1-(L39/B39),"")</f>
+      <c r="P40" s="16">
+        <f>IFERROR(1-(O40/B40),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A41" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B41" s="28">
         <v>3</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="15">
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="28">
         <v>3</v>
       </c>
-      <c r="K40" s="52"/>
-      <c r="L40" s="22">
-        <f>B40-SUM(C40:J40)</f>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="32">
+        <f>B41-SUM(C41:N41)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="27">
-        <f>IFERROR(1-(L40/B40),"")</f>
+      <c r="P41" s="17">
+        <f>IFERROR(1-(O41/B41),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A41" s="34" t="s">
+    <row r="42" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A42" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B42" s="28">
         <v>3</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="53">
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="31">
         <v>3</v>
       </c>
-      <c r="L41" s="22">
-        <f>B41-SUM(C41:K41)</f>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="32">
+        <f>B42-SUM(C42:N42)</f>
         <v>0</v>
       </c>
-      <c r="M41" s="23">
-        <f>IFERROR(1-(L41/B41),"")</f>
+      <c r="P42" s="18">
+        <f>IFERROR(1-(O42/B42),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A42" s="34" t="s">
+    <row r="43" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A43" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B43" s="28">
         <v>2</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="51">
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="31">
         <v>2</v>
       </c>
-      <c r="L42" s="22">
-        <f>B42-SUM(C42:K42)</f>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="32">
+        <f>B43-SUM(C43:N43)</f>
         <v>0</v>
       </c>
-      <c r="M42" s="23">
-        <f>IFERROR(1-(L42/B42),"")</f>
+      <c r="P43" s="18">
+        <f>IFERROR(1-(O43/B43),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A43" s="34" t="s">
+    <row r="44" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A44" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B44" s="28">
         <v>3</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="51">
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="31">
         <v>3</v>
       </c>
-      <c r="L43" s="22">
-        <f>B43-SUM(C43:K43)</f>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="32">
+        <f>B44-SUM(C44:N44)</f>
         <v>0</v>
       </c>
-      <c r="M43" s="23">
-        <f>IFERROR(1-(L43/B43),"")</f>
+      <c r="P44" s="18">
+        <f>IFERROR(1-(O44/B44),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A44" s="34" t="s">
+    <row r="45" spans="1:16" ht="36" customHeight="1">
+      <c r="A45" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B45" s="28">
         <v>1</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="51">
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="31">
         <v>1</v>
       </c>
-      <c r="L44" s="22">
-        <f>B44-SUM(C44:K44)</f>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="32">
+        <f>B45-SUM(C45:N45)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="23">
-        <f>IFERROR(1-(L44/B44),"")</f>
+      <c r="P45" s="18">
+        <f>IFERROR(1-(O45/B45),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A45" s="34" t="s">
+    <row r="46" spans="1:16" ht="35.25" customHeight="1">
+      <c r="A46" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B46" s="28">
         <v>3</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="51">
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="31">
         <v>4</v>
       </c>
-      <c r="L45" s="22">
-        <f>B45-SUM(C45:K45)</f>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="32">
+        <f>B46-SUM(C46:N46)</f>
         <v>-1</v>
       </c>
-      <c r="M45" s="23">
-        <f>IFERROR(1-(L45/B45),"")</f>
+      <c r="P46" s="18">
+        <f>IFERROR(1-(O46/B46),"")</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A46" s="34" t="s">
+    <row r="47" spans="1:16" ht="35.25" customHeight="1">
+      <c r="A47" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B47" s="28">
         <v>3</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="51">
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="31">
         <v>3</v>
       </c>
-      <c r="L46" s="22">
-        <f>B46-SUM(C46:K46)</f>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="32">
+        <f>B47-SUM(C47:N47)</f>
         <v>0</v>
       </c>
-      <c r="M46" s="23">
-        <f>IFERROR(1-(L46/B46),"")</f>
+      <c r="P47" s="18">
+        <f>IFERROR(1-(O47/B47),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A47" s="34" t="s">
+    <row r="48" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A48" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B48" s="28">
         <v>2</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="51">
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="31">
         <v>3</v>
       </c>
-      <c r="L47" s="22">
-        <f>B47-SUM(C47:K47)</f>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="32">
+        <f>B48-SUM(C48:N48)</f>
         <v>-1</v>
       </c>
-      <c r="M47" s="23">
-        <f>IFERROR(1-(L47/B47),"")</f>
+      <c r="P48" s="18">
+        <f>IFERROR(1-(O48/B48),"")</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A48" s="34" t="s">
+    <row r="49" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A49" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B49" s="28">
         <v>1</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="51">
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="31">
         <v>2</v>
       </c>
-      <c r="L48" s="22">
-        <f>B48-SUM(C48:K48)</f>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="32">
+        <f>B49-SUM(C49:N49)</f>
         <v>-1</v>
       </c>
-      <c r="M48" s="23">
-        <f>IFERROR(1-(L48/B48),"")</f>
+      <c r="P49" s="18">
+        <f>IFERROR(1-(O49/B49),"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5">
-      <c r="A49" s="5" t="s">
+    <row r="50" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A50" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="39">
-        <f>SUM(B8:B48)</f>
-        <v>164</v>
-      </c>
-      <c r="C49" s="8">
-        <f>IFERROR(IF(B49-SUM(C8:C48)=B49,NA(),B49-SUM(C8:C48)),NA())</f>
-        <v>154</v>
-      </c>
-      <c r="D49" s="8">
-        <f>IFERROR(IF(C49-SUM(D8:D48)=C49,NA(),C49-SUM(D8:D48)),NA())</f>
-        <v>139</v>
-      </c>
-      <c r="E49" s="8">
-        <f>IFERROR(IF(D49-SUM(E8:E48)=D49,NA(),D49-SUM(E8:E48)),NA())</f>
+      <c r="B50" s="28">
+        <v>3</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31">
+        <v>3</v>
+      </c>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="32">
+        <f>B50-SUM(C50:N50)</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="18">
+        <f>IFERROR(1-(O50/B50),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A51" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="28">
+        <v>4</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31">
+        <v>5</v>
+      </c>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="32">
+        <f>B51-SUM(C51:N51)</f>
+        <v>-1</v>
+      </c>
+      <c r="P51" s="18">
+        <f>IFERROR(1-(O51/B51),"")</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A52" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="28">
+        <v>1</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31">
+        <v>1</v>
+      </c>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="32">
+        <f>B52-SUM(C52:N52)</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="18">
+        <f>IFERROR(1-(O52/B52),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A53" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="28">
+        <v>4</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31">
+        <v>4</v>
+      </c>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="32">
+        <f>B53-SUM(C53:N53)</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="18">
+        <f>IFERROR(1-(O53/B53),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A54" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="28">
+        <v>4</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31">
+        <v>1</v>
+      </c>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="32">
+        <f>B54-SUM(C54:N54)</f>
+        <v>3</v>
+      </c>
+      <c r="P54" s="18">
+        <f>IFERROR(1-(O54/B54),"")</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A55" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="28">
+        <v>2</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31">
+        <v>3</v>
+      </c>
+      <c r="N55" s="31"/>
+      <c r="O55" s="32">
+        <f>B55-SUM(C55:N55)</f>
+        <v>-1</v>
+      </c>
+      <c r="P55" s="18">
+        <f>IFERROR(1-(O55/B55),"")</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A56" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="28">
+        <v>1</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31">
+        <v>1</v>
+      </c>
+      <c r="N56" s="31"/>
+      <c r="O56" s="32">
+        <f>B56-SUM(C56:N56)</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="18">
+        <f>IFERROR(1-(O56/B56),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A57" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="28">
+        <v>3</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31">
+        <v>3</v>
+      </c>
+      <c r="N57" s="31"/>
+      <c r="O57" s="32">
+        <f>B57-SUM(C57:N57)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="18">
+        <f>IFERROR(1-(O57/B57),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A58" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="28">
+        <v>3</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31">
+        <v>3</v>
+      </c>
+      <c r="N58" s="31"/>
+      <c r="O58" s="32">
+        <f>B58-SUM(C58:N58)</f>
+        <v>0</v>
+      </c>
+      <c r="P58" s="18">
+        <f>IFERROR(1-(O58/B58),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A59" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="28">
+        <v>3</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31">
+        <v>2</v>
+      </c>
+      <c r="O59" s="32">
+        <f>B59-SUM(C59:N59)</f>
+        <v>1</v>
+      </c>
+      <c r="P59" s="18">
+        <f>IFERROR(1-(O59/B59),"")</f>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A60" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="28">
+        <v>12</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31">
+        <v>15</v>
+      </c>
+      <c r="O60" s="32">
+        <f>B60-SUM(C60:N60)</f>
+        <v>-3</v>
+      </c>
+      <c r="P60" s="18">
+        <f>IFERROR(1-(O60/B60),"")</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A61" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="28">
+        <v>15</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31">
+        <v>30</v>
+      </c>
+      <c r="O61" s="32">
+        <f>B61-SUM(C61:N61)</f>
+        <v>-15</v>
+      </c>
+      <c r="P61" s="18">
+        <f>IFERROR(1-(O61/B61),"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="33" customHeight="1">
+      <c r="A62" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="28">
+        <v>5</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31">
+        <v>5</v>
+      </c>
+      <c r="O62" s="32">
+        <f>B62-SUM(C62:N62)</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="18">
+        <f>IFERROR(1-(O62/B62),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="16.5">
+      <c r="A63" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="24">
+        <f>SUM(B9:B62)</f>
+        <v>224</v>
+      </c>
+      <c r="C63" s="25">
+        <f>ABS(IFERROR(IF(B63-SUM(C9:C62)=B63,NA(),B63-SUM(C9:C62)),NA()))</f>
+        <v>214</v>
+      </c>
+      <c r="D63" s="25">
+        <f>ABS(IFERROR(IF(C63-SUM(D9:D62)=C63,NA(),C63-SUM(D9:D62)),NA()))</f>
+        <v>199</v>
+      </c>
+      <c r="E63" s="25">
+        <f>ABS(IFERROR(IF(D63-SUM(E9:E62)=D63,NA(),D63-SUM(E9:E62)),NA()))</f>
+        <v>186</v>
+      </c>
+      <c r="F63" s="25">
+        <f>ABS(IFERROR(IF(E63-SUM(F9:F62)=E63,NA(),E63-SUM(F9:F62)),NA()))</f>
+        <v>152</v>
+      </c>
+      <c r="G63" s="25">
+        <f>ABS(IFERROR(IF(F63-SUM(G9:G62)=F63,NA(),F63-SUM(G9:G62)),NA()))</f>
+        <v>140</v>
+      </c>
+      <c r="H63" s="25">
+        <f>ABS(IFERROR(IF(G63-SUM(H9:H62)=G63,NA(),G63-SUM(H9:H62)),NA()))</f>
         <v>126</v>
       </c>
-      <c r="F49" s="8">
-        <f>IFERROR(IF(E49-SUM(F8:F48)=E49,NA(),E49-SUM(F8:F48)),NA())</f>
-        <v>92</v>
-      </c>
-      <c r="G49" s="8">
-        <f>IFERROR(IF(F49-SUM(G8:G48)=F49,NA(),F49-SUM(G8:G48)),NA())</f>
-        <v>80</v>
-      </c>
-      <c r="H49" s="8">
-        <f>IFERROR(IF(G49-SUM(H8:H48)=G49,NA(),G49-SUM(H8:H48)),NA())</f>
-        <v>66</v>
-      </c>
-      <c r="I49" s="8">
-        <f>IFERROR(IF(H49-SUM(I8:I48)=H49,NA(),H49-SUM(I8:I48)),NA())</f>
-        <v>49</v>
-      </c>
-      <c r="J49" s="8">
-        <f>IFERROR(IF(I49-SUM(J8:J48)=I49,NA(),I49-SUM(J8:J48)),NA())</f>
-        <v>19</v>
-      </c>
-      <c r="K49" s="8">
-        <f>IFERROR(IF(J49-SUM(K8:K48)=J49,NA(),J49-SUM(K8:K48)),NA())</f>
-        <v>-2</v>
-      </c>
-      <c r="L49" s="26">
-        <f>SUM(L8:L48)</f>
-        <v>-2</v>
-      </c>
-      <c r="M49" s="23">
-        <f>IFERROR(1-(L49/B49),"")</f>
-        <v>1.0121951219512195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="16.5">
-      <c r="A50" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="40">
-        <f>SUM(B8:B48)</f>
-        <v>164</v>
-      </c>
-      <c r="C50" s="9">
-        <f>IFERROR((IF(B50-($B$49/$G$4) &lt; 0,"-", B50-($B$49/$G$4))),IFERROR(B50-($B$49/9),"-"))</f>
-        <v>145.77777777777777</v>
-      </c>
-      <c r="D50" s="9">
-        <f>IFERROR((IF(C50-($B$49/$G$4) &lt; 0,"-", C50-($B$49/$G$4))),IFERROR(C50-($B$49/9),"-"))</f>
-        <v>127.55555555555554</v>
-      </c>
-      <c r="E50" s="9">
-        <f>IFERROR((IF(D50-($B$49/$G$4) &lt; 0,"-", D50-($B$49/$G$4))),IFERROR(D50-($B$49/9),"-"))</f>
-        <v>109.33333333333331</v>
-      </c>
-      <c r="F50" s="9">
-        <f>IFERROR((IF(E50-($B$49/$G$4) &lt; 0,"-", E50-($B$49/$G$4))),IFERROR(E50-($B$49/9),"-"))</f>
-        <v>91.111111111111086</v>
-      </c>
-      <c r="G50" s="9">
-        <f>IFERROR((IF(F50-($B$49/$G$4) &lt; 0,"-", F50-($B$49/$G$4))),IFERROR(F50-($B$49/9),"-"))</f>
-        <v>72.888888888888857</v>
-      </c>
-      <c r="H50" s="9">
-        <f>IFERROR((IF(G50-($B$49/$G$4) &lt; 0,"-", G50-($B$49/$G$4))),IFERROR(G50-($B$49/9),"-"))</f>
-        <v>54.666666666666636</v>
-      </c>
-      <c r="I50" s="9">
-        <f>IFERROR((IF(H50-($B$49/$G$4) &lt; 0,"-", H50-($B$49/$G$4))),IFERROR(H50-($B$49/9),"-"))</f>
-        <v>36.444444444444414</v>
-      </c>
-      <c r="J50" s="9">
-        <f>IFERROR((IF(I50-($B$49/$G$4) &lt; 0,"-", I50-($B$49/$G$4))),IFERROR(I50-($B$49/9),"-"))</f>
-        <v>18.222222222222193</v>
-      </c>
-      <c r="K50" s="9">
-        <f>IFERROR((IF(J50-($B$49/$G$4) &lt; 0,"-", J50-($B$49/$G$4))),IFERROR(J50-($B$49/9),"-"))</f>
-        <v>-2.8421709430404007E-14</v>
-      </c>
-      <c r="L50" s="24"/>
-      <c r="M50" s="25"/>
+      <c r="I63" s="25">
+        <f>ABS(IFERROR(IF(H63-SUM(I9:I62)=H63,NA(),H63-SUM(I9:I62)),NA()))</f>
+        <v>109</v>
+      </c>
+      <c r="J63" s="25">
+        <f>ABS(IFERROR(IF(I63-SUM(J9:J62)=I63,NA(),I63-SUM(J9:J62)),NA()))</f>
+        <v>79</v>
+      </c>
+      <c r="K63" s="25">
+        <f>ABS(IFERROR(IF(J63-SUM(K9:K62)=J63,NA(),J63-SUM(K9:K62)),NA()))</f>
+        <v>58</v>
+      </c>
+      <c r="L63" s="25">
+        <f>ABS(IFERROR(IF(K63-SUM(L9:L62)=K63,NA(),K63-SUM(L9:L62)),NA()))</f>
+        <v>44</v>
+      </c>
+      <c r="M63" s="25">
+        <f>ABS(IFERROR(IF(L63-SUM(M9:M62)=L63,NA(),L63-SUM(M9:M62)),NA()))</f>
+        <v>34</v>
+      </c>
+      <c r="N63" s="25">
+        <f>ABS(IFERROR(IF(M63-SUM(N9:N62)=M63,NA(),M63-SUM(N9:N62)),NA()))</f>
+        <v>18</v>
+      </c>
+      <c r="O63" s="26">
+        <f>ABS(SUM(O9:O62))</f>
+        <v>18</v>
+      </c>
+      <c r="P63" s="18">
+        <f>IFERROR(1-(O63/B63),"")</f>
+        <v>0.9196428571428571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="16.5">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11">
+        <f>SUM(B9:B62)</f>
+        <v>224</v>
+      </c>
+      <c r="C64" s="3">
+        <f>IFERROR((IF(B64-($B$63/$G$4) &lt; 0,"-", B64-($B$63/$G$4))),IFERROR(B64-($B$63/12),"-"))</f>
+        <v>205.33333333333334</v>
+      </c>
+      <c r="D64" s="3">
+        <f>IFERROR((IF(C64-($B$63/$G$4) &lt; 0,"-", C64-($B$63/$G$4))),IFERROR(C64-($B$63/12),"-"))</f>
+        <v>186.66666666666669</v>
+      </c>
+      <c r="E64" s="3">
+        <f>IFERROR((IF(D64-($B$63/$G$4) &lt; 0,"-", D64-($B$63/$G$4))),IFERROR(D64-($B$63/12),"-"))</f>
+        <v>168.00000000000003</v>
+      </c>
+      <c r="F64" s="3">
+        <f>IFERROR((IF(E64-($B$63/$G$4) &lt; 0,"-", E64-($B$63/$G$4))),IFERROR(E64-($B$63/12),"-"))</f>
+        <v>149.33333333333337</v>
+      </c>
+      <c r="G64" s="3">
+        <f>IFERROR((IF(F64-($B$63/$G$4) &lt; 0,"-", F64-($B$63/$G$4))),IFERROR(F64-($B$63/12),"-"))</f>
+        <v>130.66666666666671</v>
+      </c>
+      <c r="H64" s="3">
+        <f>IFERROR((IF(G64-($B$63/$G$4) &lt; 0,"-", G64-($B$63/$G$4))),IFERROR(G64-($B$63/12),"-"))</f>
+        <v>112.00000000000004</v>
+      </c>
+      <c r="I64" s="3">
+        <f>IFERROR((IF(H64-($B$63/$G$4) &lt; 0,"-", H64-($B$63/$G$4))),IFERROR(H64-($B$63/12),"-"))</f>
+        <v>93.333333333333371</v>
+      </c>
+      <c r="J64" s="3">
+        <f>IFERROR((IF(I64-($B$63/$G$4) &lt; 0,"-", I64-($B$63/$G$4))),IFERROR(I64-($B$63/12),"-"))</f>
+        <v>74.6666666666667</v>
+      </c>
+      <c r="K64" s="3">
+        <f>IFERROR((IF(J64-($B$63/$G$4) &lt; 0,"-", J64-($B$63/$G$4))),IFERROR(J64-($B$63/12),"-"))</f>
+        <v>56.000000000000028</v>
+      </c>
+      <c r="L64" s="3">
+        <f>IFERROR((IF(K64-($B$63/$G$4) &lt; 0,"-", K64-($B$63/$G$4))),IFERROR(K64-($B$63/12),"-"))</f>
+        <v>37.333333333333357</v>
+      </c>
+      <c r="M64" s="3">
+        <f>IFERROR((IF(L64-($B$63/$G$4) &lt; 0,"-", L64-($B$63/$G$4))),IFERROR(L64-($B$63/12),"-"))</f>
+        <v>18.666666666666689</v>
+      </c>
+      <c r="N64" s="3">
+        <f>IFERROR((IF(M64-($B$63/$G$4) &lt; 0,"-", M64-($B$63/$G$4))),IFERROR(M64-($B$63/12),"-"))</f>
+        <v>2.1316282072803006E-14</v>
+      </c>
+      <c r="O64" s="4"/>
+      <c r="P64" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C6:N6"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C2:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="M8:M34 M38:M49">
+  <conditionalFormatting sqref="P9:P35 P39:P63">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4985,7 +5406,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M37">
+  <conditionalFormatting sqref="P38">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4999,7 +5420,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M35">
+  <conditionalFormatting sqref="P36">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5013,7 +5434,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M36">
+  <conditionalFormatting sqref="P37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5047,7 +5468,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M8:M34 M38:M49</xm:sqref>
+          <xm:sqref>P9:P35 P39:P63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{780DE1F9-97F2-49DB-A7A8-A734D910CBAA}">
@@ -5063,7 +5484,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M37</xm:sqref>
+          <xm:sqref>P38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A62C7667-8402-418C-B896-0BDDFF4FFACC}">
@@ -5079,7 +5500,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M35</xm:sqref>
+          <xm:sqref>P36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AB2B895B-0E4D-43FD-9088-2FAF1FD31F55}">
@@ -5095,7 +5516,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M36</xm:sqref>
+          <xm:sqref>P37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5107,7 +5528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA0E3D-6CA6-4BD2-BA12-8B619DAD9288}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
